--- a/tables/table4f.xlsx
+++ b/tables/table4f.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="24840" windowHeight="11420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +70,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -404,12 +415,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -451,31 +474,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D2" s="2">
         <v>0.9</v>
       </c>
       <c r="E2" s="2">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="F2" s="2">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>0.913</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="I2" s="2">
         <v>0.879</v>
       </c>
       <c r="J2" s="2">
-        <v>0.913</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="K2" s="2">
-        <v>0.913</v>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -489,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>0.918</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -498,19 +521,19 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="H3" s="2">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="I3" s="2">
         <v>0.871</v>
       </c>
       <c r="J3" s="2">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="K3" s="2">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -527,25 +550,25 @@
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>0.918</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="F4" s="2">
-        <v>0.918</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="G4" s="2">
-        <v>0.896</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="H4" s="2">
-        <v>0.893</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="I4" s="2">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="J4" s="2">
-        <v>0.892</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="K4" s="2">
-        <v>0.893</v>
+        <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -568,19 +591,19 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="H5" s="2">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="I5" s="2">
         <v>0.871</v>
       </c>
       <c r="J5" s="2">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="K5" s="2">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -603,19 +626,19 @@
         <v>10</v>
       </c>
       <c r="G6" s="2">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="H6" s="2">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="I6" s="2">
         <v>0.871</v>
       </c>
       <c r="J6" s="2">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="K6" s="2">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -641,16 +664,16 @@
         <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>0.912</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="I7" s="2">
         <v>0.876</v>
       </c>
       <c r="J7" s="2">
-        <v>0.912</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="K7" s="2">
-        <v>0.912</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -679,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="2">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -717,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <v>0.854</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="K9" s="2">
-        <v>0.855</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -794,6 +817,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>